--- a/biology/Médecine/Maladie_de_Coats/Maladie_de_Coats.xlsx
+++ b/biology/Médecine/Maladie_de_Coats/Maladie_de_Coats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maladie de Coats (connu aussi sous les appellations rétinite exsudative, télangiectasie rétinienne primaire et télangiectasie rétinienne congénitale) est une rétinopathie idiopathique, congénitale, non-héréditaire, caractérisée par un développement anormal des vaisseaux de la rétine (télangiectasie) avec progressivement des dépôts d'exsudats intra- et sous-rétiniens, qui peuvent provoquer un décollement exsudatif de la rétine, des hémorragies vitréorétiniennes, un glaucome néovasculaire et finalement la perte de la vision[1].
-La maladie est généralement unilatérale et affecte le plus souvent des garçons dans la première décennie[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maladie de Coats (connu aussi sous les appellations rétinite exsudative, télangiectasie rétinienne primaire et télangiectasie rétinienne congénitale) est une rétinopathie idiopathique, congénitale, non-héréditaire, caractérisée par un développement anormal des vaisseaux de la rétine (télangiectasie) avec progressivement des dépôts d'exsudats intra- et sous-rétiniens, qui peuvent provoquer un décollement exsudatif de la rétine, des hémorragies vitréorétiniennes, un glaucome néovasculaire et finalement la perte de la vision.
+La maladie est généralement unilatérale et affecte le plus souvent des garçons dans la première décennie.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maladie fut décrite pour la première fois par George Coats (es), un ophtalmologiste écossais[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maladie fut décrite pour la première fois par George Coats (es), un ophtalmologiste écossais.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Pathogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'origine précise n'est pas connue mais la maladie pourrait être liée à une mutation somatique du gène NDP (en) (Norrie Disease Protein)[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'origine précise n'est pas connue mais la maladie pourrait être liée à une mutation somatique du gène NDP (en) (Norrie Disease Protein).
 </t>
         </is>
       </c>
